--- a/文档/异常处理机制.xlsx
+++ b/文档/异常处理机制.xlsx
@@ -258,10 +258,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -273,7 +273,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,37 +369,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,91 +415,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -425,37 +425,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,145 +593,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,17 +634,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,15 +650,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,6 +669,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -693,17 +713,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,15 +731,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -739,10 +739,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -751,133 +751,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/文档/异常处理机制.xlsx
+++ b/文档/异常处理机制.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>模块</t>
   </si>
@@ -244,13 +244,22 @@
     <t>返回不合法用户描述信息列表</t>
   </si>
   <si>
-    <t>删除模块</t>
+    <t>删除单个用户</t>
   </si>
   <si>
     <t>删除用户不存在</t>
   </si>
   <si>
     <t>提示删除用户不存在</t>
+  </si>
+  <si>
+    <t>批量删除用户</t>
+  </si>
+  <si>
+    <t>部分用户不存在</t>
+  </si>
+  <si>
+    <t>返回不存在用户id</t>
   </si>
 </sst>
 </file>
@@ -279,6 +288,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -287,6 +370,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,127 +424,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -425,187 +434,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,17 +639,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,11 +667,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,6 +687,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,17 +730,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,145 +748,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1216,10 +1225,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1619,6 +1628,20 @@
         <v>402</v>
       </c>
     </row>
+    <row r="27" spans="2:5">
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27">
+        <v>402</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:A4"/>

--- a/文档/异常处理机制.xlsx
+++ b/文档/异常处理机制.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
   <si>
     <t>模块</t>
   </si>
@@ -260,6 +260,36 @@
   </si>
   <si>
     <t>返回不存在用户id</t>
+  </si>
+  <si>
+    <t>权限验证</t>
+  </si>
+  <si>
+    <t>没有token</t>
+  </si>
+  <si>
+    <t>提示登录过期，重新登录</t>
+  </si>
+  <si>
+    <t>token错误</t>
+  </si>
+  <si>
+    <t>密码错误</t>
+  </si>
+  <si>
+    <t>提示密码已经被修改，重新登录</t>
+  </si>
+  <si>
+    <t>用户不存在</t>
+  </si>
+  <si>
+    <t>提示用户已被注销，请联系管理员，返回登录界面</t>
+  </si>
+  <si>
+    <t>权限不足</t>
+  </si>
+  <si>
+    <t>提示访问超出权限，返回上一页</t>
   </si>
 </sst>
 </file>
@@ -281,34 +311,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -324,6 +326,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -340,56 +402,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -401,11 +418,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -424,6 +447,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -434,12 +464,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -458,25 +500,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,43 +632,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,85 +644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,6 +683,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -668,34 +713,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,17 +742,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,6 +761,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -748,10 +778,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -760,137 +790,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -905,6 +935,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1225,10 +1261,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1236,7 +1272,7 @@
     <col min="1" max="1" width="9.66666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="32.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="43.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="50.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1479,7 +1515,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1496,7 +1532,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
         <v>57</v>
@@ -1509,7 +1545,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="2"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
         <v>59</v>
@@ -1522,7 +1558,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="2"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
         <v>61</v>
@@ -1535,7 +1571,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="2"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
         <v>63</v>
@@ -1548,7 +1584,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="2"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
         <v>65</v>
@@ -1561,7 +1597,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="2"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3" t="s">
         <v>67</v>
@@ -1574,7 +1610,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="2"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
         <v>69</v>
@@ -1587,7 +1623,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="2"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3" t="s">
         <v>71</v>
@@ -1600,7 +1636,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="2"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
         <v>73</v>
       </c>
@@ -1614,42 +1650,112 @@
         <v>416</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
-      <c r="B26" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="6">
         <v>402</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
-      <c r="B27" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="6">
         <v>402</v>
       </c>
     </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="6">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="6">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="6">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="6">
+        <v>403</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="A16:A27"/>
     <mergeCell ref="B16:B24"/>
+    <mergeCell ref="A28:B32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
